--- a/Git_dictionary.xlsx
+++ b/Git_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E70E22-732C-4FEC-93C3-C629A6DCF4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4506203-BA53-4433-8AD9-8FDD486688C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="482">
   <si>
     <r>
       <rPr>
@@ -6918,6 +6918,10 @@
       </rPr>
       <t>如果远端和本地是第一次关联的,在第一次推送的时候会报错, 用--force强制推送就可以</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard osun_tst.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7540,8 +7544,8 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7995,7 +7999,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" hidden="1">
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="29.25" hidden="1">
+    <row r="62" spans="1:9" ht="29.25">
       <c r="A62" s="3">
         <v>55</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="147.75">
+    <row r="65" spans="1:8" ht="147.75" hidden="1">
       <c r="A65" s="3">
         <v>58</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17.25">
+    <row r="66" spans="1:8" ht="17.25" hidden="1">
       <c r="A66" s="3">
         <v>59</v>
       </c>
@@ -9233,7 +9237,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="38.25">
+    <row r="67" spans="1:8" ht="38.25" hidden="1">
       <c r="A67" s="3">
         <v>60</v>
       </c>
@@ -9259,7 +9263,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="23.25">
+    <row r="68" spans="1:8" ht="23.25" hidden="1">
       <c r="A68" s="3">
         <v>61</v>
       </c>
@@ -9285,7 +9289,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="23.25">
+    <row r="69" spans="1:8" ht="23.25" hidden="1">
       <c r="A69" s="3">
         <v>62</v>
       </c>
@@ -9311,7 +9315,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30">
+    <row r="70" spans="1:8" ht="30" hidden="1">
       <c r="A70" s="3">
         <v>63</v>
       </c>
@@ -9337,7 +9341,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="3">
         <v>64</v>
       </c>
@@ -9363,7 +9367,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" s="3">
         <v>65</v>
       </c>
@@ -9389,7 +9393,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" s="3">
         <v>66</v>
       </c>
@@ -9415,7 +9419,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" s="3">
         <v>67</v>
       </c>
@@ -9672,7 +9676,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" hidden="1">
+    <row r="84" spans="1:9" ht="30">
       <c r="A84" s="3">
         <v>77</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="105" hidden="1">
+    <row r="85" spans="1:9" ht="105">
       <c r="A85" s="3">
         <v>78</v>
       </c>
@@ -9707,6 +9711,9 @@
       </c>
       <c r="C85" s="7" t="s">
         <v>291</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>363</v>
@@ -10883,9 +10890,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I136" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="6">
       <filters>
-        <filter val="git push"/>
+        <filter val="撤销"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I109">
@@ -11045,7 +11052,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="4:8" s="19" customFormat="1" ht="60">
+    <row r="10" spans="4:8" s="19" customFormat="1" ht="60.75">
       <c r="D10" s="18" t="s">
         <v>299</v>
       </c>
@@ -11062,7 +11069,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="15">
+    <row r="11" spans="4:8" ht="15.75">
       <c r="D11" s="17" t="s">
         <v>294</v>
       </c>
@@ -11079,7 +11086,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="15">
+    <row r="12" spans="4:8" ht="15.75">
       <c r="D12" s="17" t="s">
         <v>295</v>
       </c>
@@ -11096,7 +11103,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="15">
+    <row r="13" spans="4:8" ht="15.75">
       <c r="D13" s="17" t="s">
         <v>296</v>
       </c>
